--- a/references/ILP - Tech Fundamentals _ very_poor (1).xlsx
+++ b/references/ILP - Tech Fundamentals _ very_poor (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA93889A-FC16-45AC-AAA9-2866F6878D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6F4882-5B03-4841-95AB-0AA671839363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,40 +56,40 @@
     <t>Last modified time</t>
   </si>
   <si>
-    <t>Suneesh Thampi1</t>
-  </si>
-  <si>
-    <t>Lekshmi Asokan1</t>
-  </si>
-  <si>
-    <t>Hari1</t>
-  </si>
-  <si>
-    <t>Suneesh Thampi2</t>
-  </si>
-  <si>
-    <t>Lekshmi Asokan2</t>
-  </si>
-  <si>
-    <t>Hari2</t>
-  </si>
-  <si>
-    <t>Suneesh Thampi3</t>
-  </si>
-  <si>
-    <t>Lekshmi Asokan3</t>
-  </si>
-  <si>
-    <t>Hari3</t>
-  </si>
-  <si>
-    <t>Suneesh Thampi4</t>
-  </si>
-  <si>
-    <t>Lekshmi Asokan4</t>
-  </si>
-  <si>
-    <t>Hari4</t>
+    <t>question1.Suneesh Thampi</t>
+  </si>
+  <si>
+    <t>question1.Lekshmi Asokan</t>
+  </si>
+  <si>
+    <t>question1.Hari</t>
+  </si>
+  <si>
+    <t>question2.Suneesh Thampi</t>
+  </si>
+  <si>
+    <t>question2.Lekshmi Asokan</t>
+  </si>
+  <si>
+    <t>question2.Hari</t>
+  </si>
+  <si>
+    <t>question3.Suneesh Thampi</t>
+  </si>
+  <si>
+    <t>question3.Lekshmi Asokan</t>
+  </si>
+  <si>
+    <t>question3.Hari</t>
+  </si>
+  <si>
+    <t>question3.Suneesh Thampi2</t>
+  </si>
+  <si>
+    <t>question4.Lekshmi Asokan</t>
+  </si>
+  <si>
+    <t>question3.Hari2</t>
   </si>
   <si>
     <t>Attention was paid to details like arrangements, i.e., the location, seating arrangements, projector, etc. </t>
@@ -518,18 +518,18 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Suneesh Thampi1" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Lekshmi Asokan1" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Hari1" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Suneesh Thampi2" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Lekshmi Asokan2" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Hari2" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Suneesh Thampi3" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lekshmi Asokan3" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Hari3" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Suneesh Thampi4" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lekshmi Asokan4" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Hari4" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="question1.Suneesh Thampi" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="question1.Lekshmi Asokan" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="question1.Hari" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="question2.Suneesh Thampi" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="question2.Lekshmi Asokan" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="question2.Hari" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="question3.Suneesh Thampi" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="question3.Lekshmi Asokan" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="question3.Hari" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="question3.Suneesh Thampi2" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="question4.Lekshmi Asokan" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="question3.Hari2" dataDxfId="3"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Attention was paid to details like arrangements, i.e., the location, seating arrangements, projector, etc. " dataDxfId="2"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="What went well / things you most liked about the program " dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="What needs improvement / things you less liked about the program " dataDxfId="0"/>
@@ -837,13 +837,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2433,21 +2445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100569F42C2F5DA0149A90CC978AC65A9CA" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="804b3009e0f65a9a607b24efe4641767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc8effca-d390-41dc-9493-44d05f1eee73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1b89bf3da271ca188ababb292ea3dda" ns2:_="">
     <xsd:import namespace="dc8effca-d390-41dc-9493-44d05f1eee73"/>
@@ -2585,8 +2582,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4721263E-962A-4DD5-BE01-6E4E8751B442}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34DB2D10-1FED-4A83-9DE8-2168A4E7070B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2594,5 +2606,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34DB2D10-1FED-4A83-9DE8-2168A4E7070B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4721263E-962A-4DD5-BE01-6E4E8751B442}"/>
 </file>